--- a/data/MLP_Actual_Pred_TN.xlsx
+++ b/data/MLP_Actual_Pred_TN.xlsx
@@ -500,37 +500,37 @@
         <v>7.8</v>
       </c>
       <c r="B2" t="n">
-        <v>7.035917282104492</v>
+        <v>7.678796291351318</v>
       </c>
       <c r="C2" t="n">
         <v>7.5</v>
       </c>
       <c r="D2" t="n">
-        <v>7.333926200866699</v>
+        <v>7.258170127868652</v>
       </c>
       <c r="E2" t="n">
         <v>4.25</v>
       </c>
       <c r="F2" t="n">
-        <v>6.401710033416748</v>
+        <v>6.415688037872314</v>
       </c>
       <c r="G2" t="n">
         <v>6.5</v>
       </c>
       <c r="H2" t="n">
-        <v>6.531585693359375</v>
+        <v>7.203585147857666</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>5.143646240234375</v>
+        <v>5.886277675628662</v>
       </c>
       <c r="K2" t="n">
         <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>5.777803897857666</v>
+        <v>5.678756713867188</v>
       </c>
     </row>
     <row r="3">
@@ -538,37 +538,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>7.348487377166748</v>
+        <v>8.163042068481445</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>7.008968353271484</v>
+        <v>7.599473476409912</v>
       </c>
       <c r="E3" t="n">
         <v>7.75</v>
       </c>
       <c r="F3" t="n">
-        <v>7.148955345153809</v>
+        <v>7.34317684173584</v>
       </c>
       <c r="G3" t="n">
         <v>8.75</v>
       </c>
       <c r="H3" t="n">
-        <v>7.151454925537109</v>
+        <v>7.695350170135498</v>
       </c>
       <c r="I3" t="n">
         <v>5.75</v>
       </c>
       <c r="J3" t="n">
-        <v>5.007894039154053</v>
+        <v>5.852548122406006</v>
       </c>
       <c r="K3" t="n">
         <v>7.6</v>
       </c>
       <c r="L3" t="n">
-        <v>6.478840351104736</v>
+        <v>6.080780982971191</v>
       </c>
     </row>
     <row r="4">
@@ -576,37 +576,37 @@
         <v>8.6</v>
       </c>
       <c r="B4" t="n">
-        <v>7.654841899871826</v>
+        <v>8.146042823791504</v>
       </c>
       <c r="C4" t="n">
         <v>8.75</v>
       </c>
       <c r="D4" t="n">
-        <v>7.687365055084229</v>
+        <v>7.627312660217285</v>
       </c>
       <c r="E4" t="n">
         <v>5.5</v>
       </c>
       <c r="F4" t="n">
-        <v>7.008199214935303</v>
+        <v>6.654765605926514</v>
       </c>
       <c r="G4" t="n">
         <v>8.75</v>
       </c>
       <c r="H4" t="n">
-        <v>7.000176906585693</v>
+        <v>7.728636264801025</v>
       </c>
       <c r="I4" t="n">
         <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>6.919339179992676</v>
+        <v>6.860207557678223</v>
       </c>
       <c r="K4" t="n">
         <v>6.2</v>
       </c>
       <c r="L4" t="n">
-        <v>6.654205322265625</v>
+        <v>6.307652950286865</v>
       </c>
     </row>
     <row r="5">
@@ -614,37 +614,37 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>6.89586353302002</v>
+        <v>7.309649467468262</v>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>7.082640647888184</v>
+        <v>7.130000591278076</v>
       </c>
       <c r="E5" t="n">
         <v>5.5</v>
       </c>
       <c r="F5" t="n">
-        <v>6.396762847900391</v>
+        <v>6.003382205963135</v>
       </c>
       <c r="G5" t="n">
         <v>6.25</v>
       </c>
       <c r="H5" t="n">
-        <v>5.886236190795898</v>
+        <v>7.169793128967285</v>
       </c>
       <c r="I5" t="n">
         <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>5.515480518341064</v>
+        <v>5.43872594833374</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>5.705438137054443</v>
+        <v>5.603837966918945</v>
       </c>
     </row>
     <row r="6">
@@ -652,37 +652,37 @@
         <v>6.8</v>
       </c>
       <c r="B6" t="n">
-        <v>7.123031139373779</v>
+        <v>7.595517158508301</v>
       </c>
       <c r="C6" t="n">
         <v>6.5</v>
       </c>
       <c r="D6" t="n">
-        <v>7.480180740356445</v>
+        <v>7.404869079589844</v>
       </c>
       <c r="E6" t="n">
         <v>5.75</v>
       </c>
       <c r="F6" t="n">
-        <v>6.45933723449707</v>
+        <v>6.266992568969727</v>
       </c>
       <c r="G6" t="n">
         <v>6.25</v>
       </c>
       <c r="H6" t="n">
-        <v>6.281002998352051</v>
+        <v>6.98413610458374</v>
       </c>
       <c r="I6" t="n">
         <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>5.206927299499512</v>
+        <v>5.444037437438965</v>
       </c>
       <c r="K6" t="n">
         <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>5.584148406982422</v>
+        <v>5.33401346206665</v>
       </c>
     </row>
     <row r="7">
@@ -690,37 +690,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>7.0822434425354</v>
+        <v>7.415359973907471</v>
       </c>
       <c r="C7" t="n">
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>7.644782066345215</v>
+        <v>7.687839984893799</v>
       </c>
       <c r="E7" t="n">
         <v>7.25</v>
       </c>
       <c r="F7" t="n">
-        <v>6.215292930603027</v>
+        <v>5.451155185699463</v>
       </c>
       <c r="G7" t="n">
         <v>7.75</v>
       </c>
       <c r="H7" t="n">
-        <v>5.508052825927734</v>
+        <v>6.300025463104248</v>
       </c>
       <c r="I7" t="n">
         <v>7.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.74010705947876</v>
+        <v>4.7882981300354</v>
       </c>
       <c r="K7" t="n">
         <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>5.026779651641846</v>
+        <v>4.652234077453613</v>
       </c>
     </row>
     <row r="8">
@@ -728,37 +728,37 @@
         <v>7.4</v>
       </c>
       <c r="B8" t="n">
-        <v>6.798721790313721</v>
+        <v>7.958244800567627</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>7.282001495361328</v>
+        <v>7.524474620819092</v>
       </c>
       <c r="E8" t="n">
         <v>6.5</v>
       </c>
       <c r="F8" t="n">
-        <v>6.944747447967529</v>
+        <v>7.590628147125244</v>
       </c>
       <c r="G8" t="n">
         <v>7</v>
       </c>
       <c r="H8" t="n">
-        <v>7.058481216430664</v>
+        <v>7.394661426544189</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>4.377422332763672</v>
+        <v>5.368884086608887</v>
       </c>
       <c r="K8" t="n">
         <v>7.8</v>
       </c>
       <c r="L8" t="n">
-        <v>6.195254325866699</v>
+        <v>6.036927223205566</v>
       </c>
     </row>
     <row r="9">
@@ -766,37 +766,37 @@
         <v>6.4</v>
       </c>
       <c r="B9" t="n">
-        <v>6.379349708557129</v>
+        <v>6.779730319976807</v>
       </c>
       <c r="C9" t="n">
         <v>6.25</v>
       </c>
       <c r="D9" t="n">
-        <v>7.31224536895752</v>
+        <v>6.941958427429199</v>
       </c>
       <c r="E9" t="n">
         <v>4.75</v>
       </c>
       <c r="F9" t="n">
-        <v>5.963709354400635</v>
+        <v>5.538773059844971</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
       </c>
       <c r="H9" t="n">
-        <v>5.570297241210938</v>
+        <v>6.163086414337158</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>4.489775657653809</v>
+        <v>4.480112552642822</v>
       </c>
       <c r="K9" t="n">
         <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>5.404759407043457</v>
+        <v>5.222188472747803</v>
       </c>
     </row>
     <row r="10">
@@ -804,37 +804,37 @@
         <v>7.6</v>
       </c>
       <c r="B10" t="n">
-        <v>7.926444530487061</v>
+        <v>8.29437255859375</v>
       </c>
       <c r="C10" t="n">
         <v>7.5</v>
       </c>
       <c r="D10" t="n">
-        <v>7.756563186645508</v>
+        <v>7.778792858123779</v>
       </c>
       <c r="E10" t="n">
         <v>5.75</v>
       </c>
       <c r="F10" t="n">
-        <v>6.767982959747314</v>
+        <v>6.464171886444092</v>
       </c>
       <c r="G10" t="n">
         <v>8.75</v>
       </c>
       <c r="H10" t="n">
-        <v>7.448801040649414</v>
+        <v>8.041757583618164</v>
       </c>
       <c r="I10" t="n">
         <v>9.25</v>
       </c>
       <c r="J10" t="n">
-        <v>7.261903285980225</v>
+        <v>7.365070343017578</v>
       </c>
       <c r="K10" t="n">
         <v>6.4</v>
       </c>
       <c r="L10" t="n">
-        <v>7.220511436462402</v>
+        <v>6.592565536499023</v>
       </c>
     </row>
     <row r="11">
@@ -842,37 +842,37 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>6.983414649963379</v>
+        <v>7.392051696777344</v>
       </c>
       <c r="C11" t="n">
         <v>6.75</v>
       </c>
       <c r="D11" t="n">
-        <v>7.393380165100098</v>
+        <v>6.886778354644775</v>
       </c>
       <c r="E11" t="n">
         <v>7.75</v>
       </c>
       <c r="F11" t="n">
-        <v>7.33873176574707</v>
+        <v>7.02854585647583</v>
       </c>
       <c r="G11" t="n">
         <v>7.25</v>
       </c>
       <c r="H11" t="n">
-        <v>6.762124061584473</v>
+        <v>6.74766206741333</v>
       </c>
       <c r="I11" t="n">
         <v>6.5</v>
       </c>
       <c r="J11" t="n">
-        <v>4.970369338989258</v>
+        <v>5.148404598236084</v>
       </c>
       <c r="K11" t="n">
         <v>7.8</v>
       </c>
       <c r="L11" t="n">
-        <v>8.003823280334473</v>
+        <v>7.979765892028809</v>
       </c>
     </row>
     <row r="12">
@@ -880,37 +880,37 @@
         <v>7.8</v>
       </c>
       <c r="B12" t="n">
-        <v>7.17344856262207</v>
+        <v>7.961979389190674</v>
       </c>
       <c r="C12" t="n">
         <v>8.5</v>
       </c>
       <c r="D12" t="n">
-        <v>8.333683013916016</v>
+        <v>8.076150894165039</v>
       </c>
       <c r="E12" t="n">
         <v>7.5</v>
       </c>
       <c r="F12" t="n">
-        <v>6.881594181060791</v>
+        <v>6.354539394378662</v>
       </c>
       <c r="G12" t="n">
         <v>8.5</v>
       </c>
       <c r="H12" t="n">
-        <v>6.770491600036621</v>
+        <v>7.632431983947754</v>
       </c>
       <c r="I12" t="n">
         <v>6.25</v>
       </c>
       <c r="J12" t="n">
-        <v>6.554901123046875</v>
+        <v>6.507287502288818</v>
       </c>
       <c r="K12" t="n">
         <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>5.873291969299316</v>
+        <v>5.953563213348389</v>
       </c>
     </row>
     <row r="13">
@@ -918,37 +918,37 @@
         <v>8.6</v>
       </c>
       <c r="B13" t="n">
-        <v>7.827303409576416</v>
+        <v>8.433996200561523</v>
       </c>
       <c r="C13" t="n">
         <v>8.5</v>
       </c>
       <c r="D13" t="n">
-        <v>8.41313648223877</v>
+        <v>8.479928970336914</v>
       </c>
       <c r="E13" t="n">
         <v>8.75</v>
       </c>
       <c r="F13" t="n">
-        <v>7.752252578735352</v>
+        <v>7.326650142669678</v>
       </c>
       <c r="G13" t="n">
         <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>6.949496269226074</v>
+        <v>7.71636962890625</v>
       </c>
       <c r="I13" t="n">
         <v>6.25</v>
       </c>
       <c r="J13" t="n">
-        <v>5.744790554046631</v>
+        <v>5.799345016479492</v>
       </c>
       <c r="K13" t="n">
         <v>6</v>
       </c>
       <c r="L13" t="n">
-        <v>5.994448184967041</v>
+        <v>5.868444442749023</v>
       </c>
     </row>
     <row r="14">
@@ -956,37 +956,37 @@
         <v>7.8</v>
       </c>
       <c r="B14" t="n">
-        <v>7.432132244110107</v>
+        <v>7.990750789642334</v>
       </c>
       <c r="C14" t="n">
         <v>8.25</v>
       </c>
       <c r="D14" t="n">
-        <v>7.787624359130859</v>
+        <v>7.834836959838867</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>6.653615951538086</v>
+        <v>6.384849071502686</v>
       </c>
       <c r="G14" t="n">
         <v>8.5</v>
       </c>
       <c r="H14" t="n">
-        <v>6.435609817504883</v>
+        <v>7.500244140625</v>
       </c>
       <c r="I14" t="n">
         <v>5.75</v>
       </c>
       <c r="J14" t="n">
-        <v>5.662052154541016</v>
+        <v>6.390356540679932</v>
       </c>
       <c r="K14" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L14" t="n">
-        <v>6.540914535522461</v>
+        <v>6.407540321350098</v>
       </c>
     </row>
     <row r="15">
@@ -994,37 +994,37 @@
         <v>8</v>
       </c>
       <c r="B15" t="n">
-        <v>7.738399505615234</v>
+        <v>8.29459285736084</v>
       </c>
       <c r="C15" t="n">
         <v>8.75</v>
       </c>
       <c r="D15" t="n">
-        <v>8.425578117370605</v>
+        <v>8.270359992980957</v>
       </c>
       <c r="E15" t="n">
         <v>7.5</v>
       </c>
       <c r="F15" t="n">
-        <v>7.340775012969971</v>
+        <v>6.99093770980835</v>
       </c>
       <c r="G15" t="n">
         <v>6.75</v>
       </c>
       <c r="H15" t="n">
-        <v>6.836265563964844</v>
+        <v>7.581204414367676</v>
       </c>
       <c r="I15" t="n">
         <v>5.25</v>
       </c>
       <c r="J15" t="n">
-        <v>6.050975799560547</v>
+        <v>5.998825550079346</v>
       </c>
       <c r="K15" t="n">
         <v>6.2</v>
       </c>
       <c r="L15" t="n">
-        <v>5.88675594329834</v>
+        <v>5.987371444702148</v>
       </c>
     </row>
     <row r="16">
@@ -1032,37 +1032,37 @@
         <v>7.6</v>
       </c>
       <c r="B16" t="n">
-        <v>6.57948637008667</v>
+        <v>7.552461624145508</v>
       </c>
       <c r="C16" t="n">
         <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>7.565300464630127</v>
+        <v>7.637200355529785</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>6.209704399108887</v>
+        <v>6.397397994995117</v>
       </c>
       <c r="G16" t="n">
         <v>7.25</v>
       </c>
       <c r="H16" t="n">
-        <v>6.841751098632812</v>
+        <v>7.041721820831299</v>
       </c>
       <c r="I16" t="n">
         <v>4.25</v>
       </c>
       <c r="J16" t="n">
-        <v>4.551470279693604</v>
+        <v>5.459555149078369</v>
       </c>
       <c r="K16" t="n">
         <v>9</v>
       </c>
       <c r="L16" t="n">
-        <v>7.606888771057129</v>
+        <v>7.290325164794922</v>
       </c>
     </row>
     <row r="17">
@@ -1070,37 +1070,37 @@
         <v>7.4</v>
       </c>
       <c r="B17" t="n">
-        <v>6.81934118270874</v>
+        <v>7.385474681854248</v>
       </c>
       <c r="C17" t="n">
         <v>8.5</v>
       </c>
       <c r="D17" t="n">
-        <v>7.69304370880127</v>
+        <v>7.975719451904297</v>
       </c>
       <c r="E17" t="n">
         <v>6.25</v>
       </c>
       <c r="F17" t="n">
-        <v>6.194994926452637</v>
+        <v>5.980065822601318</v>
       </c>
       <c r="G17" t="n">
         <v>7.25</v>
       </c>
       <c r="H17" t="n">
-        <v>6.543644905090332</v>
+        <v>6.654439449310303</v>
       </c>
       <c r="I17" t="n">
         <v>6.5</v>
       </c>
       <c r="J17" t="n">
-        <v>4.179444313049316</v>
+        <v>4.697647571563721</v>
       </c>
       <c r="K17" t="n">
         <v>6.8</v>
       </c>
       <c r="L17" t="n">
-        <v>5.429585933685303</v>
+        <v>5.219744682312012</v>
       </c>
     </row>
     <row r="18">
@@ -1108,37 +1108,37 @@
         <v>7.8</v>
       </c>
       <c r="B18" t="n">
-        <v>7.132467746734619</v>
+        <v>7.867973327636719</v>
       </c>
       <c r="C18" t="n">
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>7.668967247009277</v>
+        <v>7.478672981262207</v>
       </c>
       <c r="E18" t="n">
         <v>6.5</v>
       </c>
       <c r="F18" t="n">
-        <v>6.077695846557617</v>
+        <v>5.853897571563721</v>
       </c>
       <c r="G18" t="n">
         <v>8.25</v>
       </c>
       <c r="H18" t="n">
-        <v>6.217377662658691</v>
+        <v>7.137856006622314</v>
       </c>
       <c r="I18" t="n">
         <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>6.601421356201172</v>
+        <v>6.819754123687744</v>
       </c>
       <c r="K18" t="n">
         <v>7</v>
       </c>
       <c r="L18" t="n">
-        <v>7.305544376373291</v>
+        <v>7.07125186920166</v>
       </c>
     </row>
     <row r="19">
@@ -1146,37 +1146,37 @@
         <v>8</v>
       </c>
       <c r="B19" t="n">
-        <v>7.327289581298828</v>
+        <v>7.892256259918213</v>
       </c>
       <c r="C19" t="n">
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>7.519946098327637</v>
+        <v>7.593113899230957</v>
       </c>
       <c r="E19" t="n">
         <v>6.75</v>
       </c>
       <c r="F19" t="n">
-        <v>7.150210380554199</v>
+        <v>6.569295406341553</v>
       </c>
       <c r="G19" t="n">
         <v>5.25</v>
       </c>
       <c r="H19" t="n">
-        <v>6.229506492614746</v>
+        <v>7.061156749725342</v>
       </c>
       <c r="I19" t="n">
         <v>2.75</v>
       </c>
       <c r="J19" t="n">
-        <v>5.484682083129883</v>
+        <v>5.690100193023682</v>
       </c>
       <c r="K19" t="n">
         <v>5.6</v>
       </c>
       <c r="L19" t="n">
-        <v>6.288648128509521</v>
+        <v>6.261227607727051</v>
       </c>
     </row>
     <row r="20">
@@ -1184,37 +1184,37 @@
         <v>7.6</v>
       </c>
       <c r="B20" t="n">
-        <v>7.816692352294922</v>
+        <v>8.793723106384277</v>
       </c>
       <c r="C20" t="n">
         <v>8.75</v>
       </c>
       <c r="D20" t="n">
-        <v>7.979374885559082</v>
+        <v>8.128586769104004</v>
       </c>
       <c r="E20" t="n">
         <v>8.25</v>
       </c>
       <c r="F20" t="n">
-        <v>7.955172538757324</v>
+        <v>8.238481521606445</v>
       </c>
       <c r="G20" t="n">
         <v>8.25</v>
       </c>
       <c r="H20" t="n">
-        <v>7.685876846313477</v>
+        <v>8.392986297607422</v>
       </c>
       <c r="I20" t="n">
         <v>6.75</v>
       </c>
       <c r="J20" t="n">
-        <v>6.248321533203125</v>
+        <v>6.685513496398926</v>
       </c>
       <c r="K20" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>7.990035057067871</v>
+        <v>7.395887851715088</v>
       </c>
     </row>
     <row r="21">
@@ -1222,37 +1222,37 @@
         <v>6.8</v>
       </c>
       <c r="B21" t="n">
-        <v>7.004611015319824</v>
+        <v>7.559145450592041</v>
       </c>
       <c r="C21" t="n">
         <v>8.75</v>
       </c>
       <c r="D21" t="n">
-        <v>8.22392463684082</v>
+        <v>7.953193664550781</v>
       </c>
       <c r="E21" t="n">
         <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>6.567873001098633</v>
+        <v>6.117508411407471</v>
       </c>
       <c r="G21" t="n">
         <v>6</v>
       </c>
       <c r="H21" t="n">
-        <v>6.51807689666748</v>
+        <v>7.126635074615479</v>
       </c>
       <c r="I21" t="n">
         <v>5.25</v>
       </c>
       <c r="J21" t="n">
-        <v>5.811896324157715</v>
+        <v>5.546366691589355</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>4.947706699371338</v>
+        <v>5.182815551757812</v>
       </c>
     </row>
     <row r="22">
@@ -1260,37 +1260,37 @@
         <v>7.8</v>
       </c>
       <c r="B22" t="n">
-        <v>6.703976631164551</v>
+        <v>7.959179878234863</v>
       </c>
       <c r="C22" t="n">
         <v>8.25</v>
       </c>
       <c r="D22" t="n">
-        <v>8.072177886962891</v>
+        <v>7.94039249420166</v>
       </c>
       <c r="E22" t="n">
         <v>4.75</v>
       </c>
       <c r="F22" t="n">
-        <v>6.988986015319824</v>
+        <v>6.876449584960938</v>
       </c>
       <c r="G22" t="n">
         <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>8.192594528198242</v>
+        <v>7.935033321380615</v>
       </c>
       <c r="I22" t="n">
         <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>6.021192073822021</v>
+        <v>6.601000308990479</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>6.350415229797363</v>
+        <v>6.784810066223145</v>
       </c>
     </row>
     <row r="23">
@@ -1298,37 +1298,37 @@
         <v>8.6</v>
       </c>
       <c r="B23" t="n">
-        <v>8.105396270751953</v>
+        <v>8.695452690124512</v>
       </c>
       <c r="C23" t="n">
         <v>7.75</v>
       </c>
       <c r="D23" t="n">
-        <v>8.295614242553711</v>
+        <v>8.30302619934082</v>
       </c>
       <c r="E23" t="n">
         <v>7.25</v>
       </c>
       <c r="F23" t="n">
-        <v>7.92868709564209</v>
+        <v>7.606162548065186</v>
       </c>
       <c r="G23" t="n">
         <v>7.75</v>
       </c>
       <c r="H23" t="n">
-        <v>7.32691478729248</v>
+        <v>7.986498355865479</v>
       </c>
       <c r="I23" t="n">
         <v>6.25</v>
       </c>
       <c r="J23" t="n">
-        <v>6.202178955078125</v>
+        <v>6.144742012023926</v>
       </c>
       <c r="K23" t="n">
         <v>4.8</v>
       </c>
       <c r="L23" t="n">
-        <v>5.871382713317871</v>
+        <v>5.408352851867676</v>
       </c>
     </row>
     <row r="24">
@@ -1336,37 +1336,37 @@
         <v>7.8</v>
       </c>
       <c r="B24" t="n">
-        <v>7.478501796722412</v>
+        <v>7.774667263031006</v>
       </c>
       <c r="C24" t="n">
         <v>6.75</v>
       </c>
       <c r="D24" t="n">
-        <v>7.544729232788086</v>
+        <v>7.769908905029297</v>
       </c>
       <c r="E24" t="n">
         <v>7.25</v>
       </c>
       <c r="F24" t="n">
-        <v>7.01295280456543</v>
+        <v>6.262405395507812</v>
       </c>
       <c r="G24" t="n">
         <v>6.75</v>
       </c>
       <c r="H24" t="n">
-        <v>7.001059055328369</v>
+        <v>7.183652400970459</v>
       </c>
       <c r="I24" t="n">
         <v>5.25</v>
       </c>
       <c r="J24" t="n">
-        <v>5.274186611175537</v>
+        <v>5.799738883972168</v>
       </c>
       <c r="K24" t="n">
         <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>5.411744117736816</v>
+        <v>4.763050556182861</v>
       </c>
     </row>
     <row r="25">
@@ -1374,37 +1374,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>6.634377479553223</v>
+        <v>7.401908397674561</v>
       </c>
       <c r="C25" t="n">
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>6.936636447906494</v>
+        <v>7.191384315490723</v>
       </c>
       <c r="E25" t="n">
         <v>6.5</v>
       </c>
       <c r="F25" t="n">
-        <v>6.031573295593262</v>
+        <v>5.470330715179443</v>
       </c>
       <c r="G25" t="n">
         <v>8</v>
       </c>
       <c r="H25" t="n">
-        <v>5.88625431060791</v>
+        <v>6.607039451599121</v>
       </c>
       <c r="I25" t="n">
         <v>6.25</v>
       </c>
       <c r="J25" t="n">
-        <v>5.108015537261963</v>
+        <v>6.048717498779297</v>
       </c>
       <c r="K25" t="n">
         <v>5.6</v>
       </c>
       <c r="L25" t="n">
-        <v>4.608923435211182</v>
+        <v>4.771621704101562</v>
       </c>
     </row>
     <row r="26">
@@ -1412,37 +1412,37 @@
         <v>7.4</v>
       </c>
       <c r="B26" t="n">
-        <v>6.769755840301514</v>
+        <v>7.218410491943359</v>
       </c>
       <c r="C26" t="n">
         <v>7.25</v>
       </c>
       <c r="D26" t="n">
-        <v>7.683773040771484</v>
+        <v>7.338452339172363</v>
       </c>
       <c r="E26" t="n">
         <v>6.75</v>
       </c>
       <c r="F26" t="n">
-        <v>5.907131195068359</v>
+        <v>5.657463073730469</v>
       </c>
       <c r="G26" t="n">
         <v>6.75</v>
       </c>
       <c r="H26" t="n">
-        <v>5.907010555267334</v>
+        <v>6.384242057800293</v>
       </c>
       <c r="I26" t="n">
         <v>4.25</v>
       </c>
       <c r="J26" t="n">
-        <v>4.359745979309082</v>
+        <v>4.739518642425537</v>
       </c>
       <c r="K26" t="n">
         <v>4.6</v>
       </c>
       <c r="L26" t="n">
-        <v>5.213773250579834</v>
+        <v>4.826712131500244</v>
       </c>
     </row>
     <row r="27">
@@ -1450,37 +1450,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>7.247581005096436</v>
+        <v>8.19652271270752</v>
       </c>
       <c r="C27" t="n">
         <v>9</v>
       </c>
       <c r="D27" t="n">
-        <v>8.920041084289551</v>
+        <v>8.594183921813965</v>
       </c>
       <c r="E27" t="n">
         <v>7.25</v>
       </c>
       <c r="F27" t="n">
-        <v>7.177359580993652</v>
+        <v>6.348906517028809</v>
       </c>
       <c r="G27" t="n">
         <v>7.5</v>
       </c>
       <c r="H27" t="n">
-        <v>7.111806869506836</v>
+        <v>7.654140949249268</v>
       </c>
       <c r="I27" t="n">
         <v>6.25</v>
       </c>
       <c r="J27" t="n">
-        <v>5.808982372283936</v>
+        <v>6.258378982543945</v>
       </c>
       <c r="K27" t="n">
         <v>5.4</v>
       </c>
       <c r="L27" t="n">
-        <v>5.307025909423828</v>
+        <v>4.782676696777344</v>
       </c>
     </row>
     <row r="28">
@@ -1488,37 +1488,37 @@
         <v>8.6</v>
       </c>
       <c r="B28" t="n">
-        <v>8.113866806030273</v>
+        <v>8.652563095092773</v>
       </c>
       <c r="C28" t="n">
         <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>8.12809944152832</v>
+        <v>8.065683364868164</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>6.893061637878418</v>
+        <v>6.761775493621826</v>
       </c>
       <c r="G28" t="n">
         <v>8.75</v>
       </c>
       <c r="H28" t="n">
-        <v>7.440168857574463</v>
+        <v>8.22724723815918</v>
       </c>
       <c r="I28" t="n">
         <v>7.25</v>
       </c>
       <c r="J28" t="n">
-        <v>8.07465934753418</v>
+        <v>7.651756286621094</v>
       </c>
       <c r="K28" t="n">
         <v>7.4</v>
       </c>
       <c r="L28" t="n">
-        <v>6.754877090454102</v>
+        <v>6.009018898010254</v>
       </c>
     </row>
     <row r="29">
@@ -1526,37 +1526,37 @@
         <v>6.4</v>
       </c>
       <c r="B29" t="n">
-        <v>6.894384860992432</v>
+        <v>7.378615379333496</v>
       </c>
       <c r="C29" t="n">
         <v>7.5</v>
       </c>
       <c r="D29" t="n">
-        <v>7.66526460647583</v>
+        <v>7.584190368652344</v>
       </c>
       <c r="E29" t="n">
         <v>5.75</v>
       </c>
       <c r="F29" t="n">
-        <v>6.168873310089111</v>
+        <v>5.839804172515869</v>
       </c>
       <c r="G29" t="n">
         <v>7.5</v>
       </c>
       <c r="H29" t="n">
-        <v>6.610853672027588</v>
+        <v>6.832606315612793</v>
       </c>
       <c r="I29" t="n">
         <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>4.651947975158691</v>
+        <v>5.260197639465332</v>
       </c>
       <c r="K29" t="n">
         <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>4.918742656707764</v>
+        <v>4.433781147003174</v>
       </c>
     </row>
     <row r="30">
@@ -1564,37 +1564,37 @@
         <v>8.4</v>
       </c>
       <c r="B30" t="n">
-        <v>7.786318778991699</v>
+        <v>8.594215393066406</v>
       </c>
       <c r="C30" t="n">
         <v>7.75</v>
       </c>
       <c r="D30" t="n">
-        <v>8.481857299804688</v>
+        <v>8.369620323181152</v>
       </c>
       <c r="E30" t="n">
         <v>4.75</v>
       </c>
       <c r="F30" t="n">
-        <v>6.850686550140381</v>
+        <v>6.593719005584717</v>
       </c>
       <c r="G30" t="n">
         <v>7.25</v>
       </c>
       <c r="H30" t="n">
-        <v>7.153096199035645</v>
+        <v>8.220424652099609</v>
       </c>
       <c r="I30" t="n">
         <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>7.883382320404053</v>
+        <v>7.664345264434814</v>
       </c>
       <c r="K30" t="n">
         <v>5</v>
       </c>
       <c r="L30" t="n">
-        <v>5.203482627868652</v>
+        <v>5.07403564453125</v>
       </c>
     </row>
     <row r="31">
@@ -1602,37 +1602,37 @@
         <v>6.2</v>
       </c>
       <c r="B31" t="n">
-        <v>6.666720867156982</v>
+        <v>7.478585243225098</v>
       </c>
       <c r="C31" t="n">
         <v>7</v>
       </c>
       <c r="D31" t="n">
-        <v>7.205336570739746</v>
+        <v>7.184884548187256</v>
       </c>
       <c r="E31" t="n">
         <v>5.5</v>
       </c>
       <c r="F31" t="n">
-        <v>6.049470901489258</v>
+        <v>5.75365686416626</v>
       </c>
       <c r="G31" t="n">
         <v>6.5</v>
       </c>
       <c r="H31" t="n">
-        <v>6.367883205413818</v>
+        <v>6.927764415740967</v>
       </c>
       <c r="I31" t="n">
         <v>5.75</v>
       </c>
       <c r="J31" t="n">
-        <v>5.155924797058105</v>
+        <v>6.01285982131958</v>
       </c>
       <c r="K31" t="n">
         <v>5.6</v>
       </c>
       <c r="L31" t="n">
-        <v>6.672198295593262</v>
+        <v>6.364871025085449</v>
       </c>
     </row>
     <row r="32">
@@ -1640,37 +1640,37 @@
         <v>8.6</v>
       </c>
       <c r="B32" t="n">
-        <v>7.459737300872803</v>
+        <v>8.417502403259277</v>
       </c>
       <c r="C32" t="n">
         <v>7.5</v>
       </c>
       <c r="D32" t="n">
-        <v>8.277711868286133</v>
+        <v>8.1331787109375</v>
       </c>
       <c r="E32" t="n">
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>7.874686717987061</v>
+        <v>7.802277088165283</v>
       </c>
       <c r="G32" t="n">
         <v>7.25</v>
       </c>
       <c r="H32" t="n">
-        <v>7.023816108703613</v>
+        <v>7.833676815032959</v>
       </c>
       <c r="I32" t="n">
         <v>6.5</v>
       </c>
       <c r="J32" t="n">
-        <v>5.425415515899658</v>
+        <v>5.563243389129639</v>
       </c>
       <c r="K32" t="n">
         <v>7.4</v>
       </c>
       <c r="L32" t="n">
-        <v>7.448507308959961</v>
+        <v>6.848456382751465</v>
       </c>
     </row>
     <row r="33">
@@ -1678,37 +1678,37 @@
         <v>9.199999999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>8.531867980957031</v>
+        <v>9.317481994628906</v>
       </c>
       <c r="C33" t="n">
         <v>9.25</v>
       </c>
       <c r="D33" t="n">
-        <v>9.02412223815918</v>
+        <v>8.816181182861328</v>
       </c>
       <c r="E33" t="n">
         <v>8.75</v>
       </c>
       <c r="F33" t="n">
-        <v>8.387895584106445</v>
+        <v>8.178665161132812</v>
       </c>
       <c r="G33" t="n">
         <v>8.25</v>
       </c>
       <c r="H33" t="n">
-        <v>7.744637489318848</v>
+        <v>8.719660758972168</v>
       </c>
       <c r="I33" t="n">
         <v>7.5</v>
       </c>
       <c r="J33" t="n">
-        <v>7.670886039733887</v>
+        <v>7.503590106964111</v>
       </c>
       <c r="K33" t="n">
         <v>7.8</v>
       </c>
       <c r="L33" t="n">
-        <v>8.125834465026855</v>
+        <v>7.286023139953613</v>
       </c>
     </row>
     <row r="34">
@@ -1716,37 +1716,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>6.279640674591064</v>
+        <v>6.918888092041016</v>
       </c>
       <c r="C34" t="n">
         <v>6.5</v>
       </c>
       <c r="D34" t="n">
-        <v>7.406815528869629</v>
+        <v>7.200526714324951</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>5.652366161346436</v>
+        <v>5.204392433166504</v>
       </c>
       <c r="G34" t="n">
         <v>8.5</v>
       </c>
       <c r="H34" t="n">
-        <v>5.351900577545166</v>
+        <v>6.373614311218262</v>
       </c>
       <c r="I34" t="n">
         <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>5.182242393493652</v>
+        <v>5.331043243408203</v>
       </c>
       <c r="K34" t="n">
         <v>3.4</v>
       </c>
       <c r="L34" t="n">
-        <v>4.252371311187744</v>
+        <v>4.641327857971191</v>
       </c>
     </row>
     <row r="35">
@@ -1754,37 +1754,37 @@
         <v>8.4</v>
       </c>
       <c r="B35" t="n">
-        <v>6.576409339904785</v>
+        <v>7.173992156982422</v>
       </c>
       <c r="C35" t="n">
         <v>8.5</v>
       </c>
       <c r="D35" t="n">
-        <v>7.819716453552246</v>
+        <v>7.61273717880249</v>
       </c>
       <c r="E35" t="n">
         <v>8</v>
       </c>
       <c r="F35" t="n">
-        <v>6.127585887908936</v>
+        <v>5.438480854034424</v>
       </c>
       <c r="G35" t="n">
         <v>6.5</v>
       </c>
       <c r="H35" t="n">
-        <v>6.067075729370117</v>
+        <v>6.699478626251221</v>
       </c>
       <c r="I35" t="n">
         <v>4.5</v>
       </c>
       <c r="J35" t="n">
-        <v>5.910695552825928</v>
+        <v>5.439528942108154</v>
       </c>
       <c r="K35" t="n">
         <v>5.8</v>
       </c>
       <c r="L35" t="n">
-        <v>4.77679967880249</v>
+        <v>4.783433437347412</v>
       </c>
     </row>
     <row r="36">
@@ -1792,37 +1792,37 @@
         <v>6.6</v>
       </c>
       <c r="B36" t="n">
-        <v>7.276075839996338</v>
+        <v>7.920217037200928</v>
       </c>
       <c r="C36" t="n">
         <v>6.75</v>
       </c>
       <c r="D36" t="n">
-        <v>8.238944053649902</v>
+        <v>7.853564262390137</v>
       </c>
       <c r="E36" t="n">
         <v>5.5</v>
       </c>
       <c r="F36" t="n">
-        <v>7.159663200378418</v>
+        <v>6.829422473907471</v>
       </c>
       <c r="G36" t="n">
         <v>5.25</v>
       </c>
       <c r="H36" t="n">
-        <v>6.129833221435547</v>
+        <v>7.366415977478027</v>
       </c>
       <c r="I36" t="n">
         <v>4.75</v>
       </c>
       <c r="J36" t="n">
-        <v>5.785962581634521</v>
+        <v>5.652657508850098</v>
       </c>
       <c r="K36" t="n">
         <v>4.8</v>
       </c>
       <c r="L36" t="n">
-        <v>5.752115249633789</v>
+        <v>5.894618988037109</v>
       </c>
     </row>
     <row r="37">
@@ -1830,37 +1830,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>7.057363510131836</v>
+        <v>7.755016803741455</v>
       </c>
       <c r="C37" t="n">
         <v>7.5</v>
       </c>
       <c r="D37" t="n">
-        <v>7.759042739868164</v>
+        <v>7.626322746276855</v>
       </c>
       <c r="E37" t="n">
         <v>6.75</v>
       </c>
       <c r="F37" t="n">
-        <v>6.742286682128906</v>
+        <v>6.788233280181885</v>
       </c>
       <c r="G37" t="n">
         <v>7.5</v>
       </c>
       <c r="H37" t="n">
-        <v>6.345797538757324</v>
+        <v>7.139491081237793</v>
       </c>
       <c r="I37" t="n">
         <v>5.25</v>
       </c>
       <c r="J37" t="n">
-        <v>5.03819465637207</v>
+        <v>5.232452869415283</v>
       </c>
       <c r="K37" t="n">
         <v>4.8</v>
       </c>
       <c r="L37" t="n">
-        <v>6.424958229064941</v>
+        <v>6.257058143615723</v>
       </c>
     </row>
     <row r="38">
@@ -1868,37 +1868,37 @@
         <v>9</v>
       </c>
       <c r="B38" t="n">
-        <v>8.224430084228516</v>
+        <v>8.824994087219238</v>
       </c>
       <c r="C38" t="n">
         <v>8.25</v>
       </c>
       <c r="D38" t="n">
-        <v>9.054775238037109</v>
+        <v>8.750468254089355</v>
       </c>
       <c r="E38" t="n">
         <v>8.25</v>
       </c>
       <c r="F38" t="n">
-        <v>8.515872001647949</v>
+        <v>7.942699909210205</v>
       </c>
       <c r="G38" t="n">
         <v>8.5</v>
       </c>
       <c r="H38" t="n">
-        <v>7.43584156036377</v>
+        <v>8.026333808898926</v>
       </c>
       <c r="I38" t="n">
         <v>6</v>
       </c>
       <c r="J38" t="n">
-        <v>6.324066638946533</v>
+        <v>5.875825881958008</v>
       </c>
       <c r="K38" t="n">
         <v>6.4</v>
       </c>
       <c r="L38" t="n">
-        <v>6.469816207885742</v>
+        <v>6.263772964477539</v>
       </c>
     </row>
     <row r="39">
@@ -1906,37 +1906,37 @@
         <v>7.6</v>
       </c>
       <c r="B39" t="n">
-        <v>7.743046283721924</v>
+        <v>8.323439598083496</v>
       </c>
       <c r="C39" t="n">
         <v>9</v>
       </c>
       <c r="D39" t="n">
-        <v>8.572408676147461</v>
+        <v>8.558156967163086</v>
       </c>
       <c r="E39" t="n">
         <v>7.5</v>
       </c>
       <c r="F39" t="n">
-        <v>7.41037654876709</v>
+        <v>6.592226028442383</v>
       </c>
       <c r="G39" t="n">
         <v>7.5</v>
       </c>
       <c r="H39" t="n">
-        <v>6.805296897888184</v>
+        <v>7.608054637908936</v>
       </c>
       <c r="I39" t="n">
         <v>7.5</v>
       </c>
       <c r="J39" t="n">
-        <v>5.878837585449219</v>
+        <v>6.14360523223877</v>
       </c>
       <c r="K39" t="n">
         <v>5.2</v>
       </c>
       <c r="L39" t="n">
-        <v>5.223743438720703</v>
+        <v>4.890017032623291</v>
       </c>
     </row>
     <row r="40">
@@ -1944,37 +1944,37 @@
         <v>9</v>
       </c>
       <c r="B40" t="n">
-        <v>8.445833206176758</v>
+        <v>9.148225784301758</v>
       </c>
       <c r="C40" t="n">
         <v>8.5</v>
       </c>
       <c r="D40" t="n">
-        <v>8.924382209777832</v>
+        <v>8.790951728820801</v>
       </c>
       <c r="E40" t="n">
         <v>8</v>
       </c>
       <c r="F40" t="n">
-        <v>8.381570816040039</v>
+        <v>7.9527907371521</v>
       </c>
       <c r="G40" t="n">
         <v>7.75</v>
       </c>
       <c r="H40" t="n">
-        <v>7.485291957855225</v>
+        <v>8.464612007141113</v>
       </c>
       <c r="I40" t="n">
         <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>7.110208034515381</v>
+        <v>7.101617336273193</v>
       </c>
       <c r="K40" t="n">
         <v>6.8</v>
       </c>
       <c r="L40" t="n">
-        <v>7.108296871185303</v>
+        <v>6.818402767181396</v>
       </c>
     </row>
     <row r="41">
@@ -1982,37 +1982,37 @@
         <v>7.2</v>
       </c>
       <c r="B41" t="n">
-        <v>6.24893045425415</v>
+        <v>6.952483654022217</v>
       </c>
       <c r="C41" t="n">
         <v>7.25</v>
       </c>
       <c r="D41" t="n">
-        <v>7.222043991088867</v>
+        <v>7.181028842926025</v>
       </c>
       <c r="E41" t="n">
         <v>6</v>
       </c>
       <c r="F41" t="n">
-        <v>5.940945148468018</v>
+        <v>5.279051303863525</v>
       </c>
       <c r="G41" t="n">
         <v>5.75</v>
       </c>
       <c r="H41" t="n">
-        <v>6.159677505493164</v>
+        <v>6.63939094543457</v>
       </c>
       <c r="I41" t="n">
         <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>5.918322086334229</v>
+        <v>5.656556606292725</v>
       </c>
       <c r="K41" t="n">
         <v>7.4</v>
       </c>
       <c r="L41" t="n">
-        <v>6.38801383972168</v>
+        <v>6.503632545471191</v>
       </c>
     </row>
     <row r="42">
@@ -2020,37 +2020,37 @@
         <v>8.4</v>
       </c>
       <c r="B42" t="n">
-        <v>7.521541595458984</v>
+        <v>7.847952365875244</v>
       </c>
       <c r="C42" t="n">
         <v>6.75</v>
       </c>
       <c r="D42" t="n">
-        <v>7.250863552093506</v>
+        <v>7.238479137420654</v>
       </c>
       <c r="E42" t="n">
         <v>5.75</v>
       </c>
       <c r="F42" t="n">
-        <v>6.355623722076416</v>
+        <v>5.864368915557861</v>
       </c>
       <c r="G42" t="n">
         <v>8.25</v>
       </c>
       <c r="H42" t="n">
-        <v>6.891993522644043</v>
+        <v>7.575767517089844</v>
       </c>
       <c r="I42" t="n">
         <v>7.5</v>
       </c>
       <c r="J42" t="n">
-        <v>7.042466640472412</v>
+        <v>7.233037948608398</v>
       </c>
       <c r="K42" t="n">
         <v>6.8</v>
       </c>
       <c r="L42" t="n">
-        <v>6.568730354309082</v>
+        <v>6.311175346374512</v>
       </c>
     </row>
     <row r="43">
@@ -2058,37 +2058,37 @@
         <v>7.2</v>
       </c>
       <c r="B43" t="n">
-        <v>6.547609806060791</v>
+        <v>7.011873722076416</v>
       </c>
       <c r="C43" t="n">
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>6.974613189697266</v>
+        <v>6.7923264503479</v>
       </c>
       <c r="E43" t="n">
         <v>5.25</v>
       </c>
       <c r="F43" t="n">
-        <v>5.993706703186035</v>
+        <v>6.178187847137451</v>
       </c>
       <c r="G43" t="n">
         <v>6.75</v>
       </c>
       <c r="H43" t="n">
-        <v>6.502548217773438</v>
+        <v>6.98984956741333</v>
       </c>
       <c r="I43" t="n">
         <v>3.75</v>
       </c>
       <c r="J43" t="n">
-        <v>4.564408302307129</v>
+        <v>5.567664623260498</v>
       </c>
       <c r="K43" t="n">
         <v>7.4</v>
       </c>
       <c r="L43" t="n">
-        <v>6.967870712280273</v>
+        <v>6.417941093444824</v>
       </c>
     </row>
     <row r="44">
@@ -2096,37 +2096,37 @@
         <v>9</v>
       </c>
       <c r="B44" t="n">
-        <v>8.031074523925781</v>
+        <v>8.795186042785645</v>
       </c>
       <c r="C44" t="n">
         <v>9.5</v>
       </c>
       <c r="D44" t="n">
-        <v>8.765490531921387</v>
+        <v>8.466967582702637</v>
       </c>
       <c r="E44" t="n">
         <v>7.25</v>
       </c>
       <c r="F44" t="n">
-        <v>7.791571140289307</v>
+        <v>7.434893131256104</v>
       </c>
       <c r="G44" t="n">
         <v>8.25</v>
       </c>
       <c r="H44" t="n">
-        <v>7.151947975158691</v>
+        <v>8.059528350830078</v>
       </c>
       <c r="I44" t="n">
         <v>6.5</v>
       </c>
       <c r="J44" t="n">
-        <v>6.885688304901123</v>
+        <v>6.865862846374512</v>
       </c>
       <c r="K44" t="n">
         <v>5.8</v>
       </c>
       <c r="L44" t="n">
-        <v>6.360733509063721</v>
+        <v>6.234625816345215</v>
       </c>
     </row>
     <row r="45">
@@ -2134,37 +2134,37 @@
         <v>6.6</v>
       </c>
       <c r="B45" t="n">
-        <v>7.969552040100098</v>
+        <v>8.282868385314941</v>
       </c>
       <c r="C45" t="n">
         <v>7.75</v>
       </c>
       <c r="D45" t="n">
-        <v>7.146822929382324</v>
+        <v>7.372325420379639</v>
       </c>
       <c r="E45" t="n">
         <v>5</v>
       </c>
       <c r="F45" t="n">
-        <v>7.452692031860352</v>
+        <v>7.403198719024658</v>
       </c>
       <c r="G45" t="n">
         <v>6.25</v>
       </c>
       <c r="H45" t="n">
-        <v>7.333371639251709</v>
+        <v>8.124517440795898</v>
       </c>
       <c r="I45" t="n">
         <v>6.75</v>
       </c>
       <c r="J45" t="n">
-        <v>6.603338241577148</v>
+        <v>6.763950347900391</v>
       </c>
       <c r="K45" t="n">
         <v>6.2</v>
       </c>
       <c r="L45" t="n">
-        <v>6.269993305206299</v>
+        <v>5.868954658508301</v>
       </c>
     </row>
     <row r="46">
@@ -2172,37 +2172,37 @@
         <v>8</v>
       </c>
       <c r="B46" t="n">
-        <v>6.310055255889893</v>
+        <v>6.987033367156982</v>
       </c>
       <c r="C46" t="n">
         <v>8.5</v>
       </c>
       <c r="D46" t="n">
-        <v>6.537227630615234</v>
+        <v>6.5864577293396</v>
       </c>
       <c r="E46" t="n">
         <v>7.75</v>
       </c>
       <c r="F46" t="n">
-        <v>5.668766021728516</v>
+        <v>6.020554065704346</v>
       </c>
       <c r="G46" t="n">
         <v>7.75</v>
       </c>
       <c r="H46" t="n">
-        <v>6.142298698425293</v>
+        <v>6.903957366943359</v>
       </c>
       <c r="I46" t="n">
         <v>3.75</v>
       </c>
       <c r="J46" t="n">
-        <v>4.922713756561279</v>
+        <v>5.790838241577148</v>
       </c>
       <c r="K46" t="n">
         <v>6</v>
       </c>
       <c r="L46" t="n">
-        <v>5.257070064544678</v>
+        <v>5.634430885314941</v>
       </c>
     </row>
     <row r="47">
@@ -2210,37 +2210,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>7.241612434387207</v>
+        <v>7.967606067657471</v>
       </c>
       <c r="C47" t="n">
         <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>7.456547260284424</v>
+        <v>7.564099311828613</v>
       </c>
       <c r="E47" t="n">
         <v>6</v>
       </c>
       <c r="F47" t="n">
-        <v>6.672983169555664</v>
+        <v>6.827112674713135</v>
       </c>
       <c r="G47" t="n">
         <v>7.5</v>
       </c>
       <c r="H47" t="n">
-        <v>6.712165355682373</v>
+        <v>7.345045566558838</v>
       </c>
       <c r="I47" t="n">
         <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>4.899559497833252</v>
+        <v>5.9416823387146</v>
       </c>
       <c r="K47" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="L47" t="n">
-        <v>6.960877895355225</v>
+        <v>6.864494323730469</v>
       </c>
     </row>
     <row r="48">
@@ -2248,37 +2248,37 @@
         <v>7.8</v>
       </c>
       <c r="B48" t="n">
-        <v>7.534938335418701</v>
+        <v>8.329232215881348</v>
       </c>
       <c r="C48" t="n">
         <v>7.25</v>
       </c>
       <c r="D48" t="n">
-        <v>7.947245597839355</v>
+        <v>8.059737205505371</v>
       </c>
       <c r="E48" t="n">
         <v>7.25</v>
       </c>
       <c r="F48" t="n">
-        <v>7.30992603302002</v>
+        <v>7.154428005218506</v>
       </c>
       <c r="G48" t="n">
         <v>7.5</v>
       </c>
       <c r="H48" t="n">
-        <v>7.122811317443848</v>
+        <v>7.656277179718018</v>
       </c>
       <c r="I48" t="n">
         <v>5.5</v>
       </c>
       <c r="J48" t="n">
-        <v>5.659510135650635</v>
+        <v>6.081055641174316</v>
       </c>
       <c r="K48" t="n">
         <v>5.4</v>
       </c>
       <c r="L48" t="n">
-        <v>6.13869047164917</v>
+        <v>5.5677809715271</v>
       </c>
     </row>
     <row r="49">
@@ -2286,37 +2286,37 @@
         <v>8.6</v>
       </c>
       <c r="B49" t="n">
-        <v>7.945000648498535</v>
+        <v>8.910247802734375</v>
       </c>
       <c r="C49" t="n">
         <v>7.75</v>
       </c>
       <c r="D49" t="n">
-        <v>8.232149124145508</v>
+        <v>8.383110046386719</v>
       </c>
       <c r="E49" t="n">
         <v>6.75</v>
       </c>
       <c r="F49" t="n">
-        <v>7.668804168701172</v>
+        <v>7.525943279266357</v>
       </c>
       <c r="G49" t="n">
         <v>7.75</v>
       </c>
       <c r="H49" t="n">
-        <v>7.849047183990479</v>
+        <v>8.328413009643555</v>
       </c>
       <c r="I49" t="n">
         <v>8</v>
       </c>
       <c r="J49" t="n">
-        <v>6.463511943817139</v>
+        <v>7.032204627990723</v>
       </c>
       <c r="K49" t="n">
         <v>5.6</v>
       </c>
       <c r="L49" t="n">
-        <v>5.912845134735107</v>
+        <v>5.419443607330322</v>
       </c>
     </row>
     <row r="50">
@@ -2324,37 +2324,37 @@
         <v>7.8</v>
       </c>
       <c r="B50" t="n">
-        <v>8.09187126159668</v>
+        <v>8.803342819213867</v>
       </c>
       <c r="C50" t="n">
         <v>7.75</v>
       </c>
       <c r="D50" t="n">
-        <v>8.297018051147461</v>
+        <v>8.356456756591797</v>
       </c>
       <c r="E50" t="n">
         <v>7.5</v>
       </c>
       <c r="F50" t="n">
-        <v>7.738965034484863</v>
+        <v>7.760136127471924</v>
       </c>
       <c r="G50" t="n">
         <v>8</v>
       </c>
       <c r="H50" t="n">
-        <v>7.42457389831543</v>
+        <v>8.324832916259766</v>
       </c>
       <c r="I50" t="n">
         <v>6.25</v>
       </c>
       <c r="J50" t="n">
-        <v>6.82728385925293</v>
+        <v>6.927515029907227</v>
       </c>
       <c r="K50" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L50" t="n">
-        <v>8.188968658447266</v>
+        <v>7.496192932128906</v>
       </c>
     </row>
     <row r="51">
@@ -2362,37 +2362,37 @@
         <v>8.4</v>
       </c>
       <c r="B51" t="n">
-        <v>7.667421340942383</v>
+        <v>8.256171226501465</v>
       </c>
       <c r="C51" t="n">
         <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>8.422098159790039</v>
+        <v>8.356267929077148</v>
       </c>
       <c r="E51" t="n">
         <v>6.25</v>
       </c>
       <c r="F51" t="n">
-        <v>6.426582336425781</v>
+        <v>6.264983654022217</v>
       </c>
       <c r="G51" t="n">
         <v>7.5</v>
       </c>
       <c r="H51" t="n">
-        <v>6.376736164093018</v>
+        <v>7.555964946746826</v>
       </c>
       <c r="I51" t="n">
         <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>6.502882480621338</v>
+        <v>6.621223926544189</v>
       </c>
       <c r="K51" t="n">
         <v>7</v>
       </c>
       <c r="L51" t="n">
-        <v>6.582424163818359</v>
+        <v>5.950569629669189</v>
       </c>
     </row>
     <row r="52">
@@ -2400,37 +2400,37 @@
         <v>4.6</v>
       </c>
       <c r="B52" t="n">
-        <v>6.727687835693359</v>
+        <v>7.0489821434021</v>
       </c>
       <c r="C52" t="n">
         <v>7.5</v>
       </c>
       <c r="D52" t="n">
-        <v>7.855993747711182</v>
+        <v>7.51919412612915</v>
       </c>
       <c r="E52" t="n">
         <v>4.5</v>
       </c>
       <c r="F52" t="n">
-        <v>5.496767044067383</v>
+        <v>4.85824728012085</v>
       </c>
       <c r="G52" t="n">
         <v>7</v>
       </c>
       <c r="H52" t="n">
-        <v>5.916905403137207</v>
+        <v>6.158831119537354</v>
       </c>
       <c r="I52" t="n">
         <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>5.70458459854126</v>
+        <v>5.663432598114014</v>
       </c>
       <c r="K52" t="n">
         <v>3.2</v>
       </c>
       <c r="L52" t="n">
-        <v>4.995129108428955</v>
+        <v>4.397027969360352</v>
       </c>
     </row>
     <row r="53">
@@ -2438,37 +2438,37 @@
         <v>8.800000000000001</v>
       </c>
       <c r="B53" t="n">
-        <v>7.78745174407959</v>
+        <v>8.253373146057129</v>
       </c>
       <c r="C53" t="n">
         <v>6.75</v>
       </c>
       <c r="D53" t="n">
-        <v>7.505402565002441</v>
+        <v>7.676690578460693</v>
       </c>
       <c r="E53" t="n">
         <v>7.5</v>
       </c>
       <c r="F53" t="n">
-        <v>7.078673362731934</v>
+        <v>6.84529447555542</v>
       </c>
       <c r="G53" t="n">
         <v>6.75</v>
       </c>
       <c r="H53" t="n">
-        <v>6.48894214630127</v>
+        <v>7.629463672637939</v>
       </c>
       <c r="I53" t="n">
         <v>7.5</v>
       </c>
       <c r="J53" t="n">
-        <v>6.762397289276123</v>
+        <v>6.361171245574951</v>
       </c>
       <c r="K53" t="n">
         <v>5</v>
       </c>
       <c r="L53" t="n">
-        <v>4.544970512390137</v>
+        <v>4.551281929016113</v>
       </c>
     </row>
     <row r="54">
@@ -2476,37 +2476,37 @@
         <v>7.6</v>
       </c>
       <c r="B54" t="n">
-        <v>6.767078876495361</v>
+        <v>7.388233661651611</v>
       </c>
       <c r="C54" t="n">
         <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>7.374485969543457</v>
+        <v>7.511660575866699</v>
       </c>
       <c r="E54" t="n">
         <v>5.75</v>
       </c>
       <c r="F54" t="n">
-        <v>5.591140270233154</v>
+        <v>5.127161502838135</v>
       </c>
       <c r="G54" t="n">
         <v>7.75</v>
       </c>
       <c r="H54" t="n">
-        <v>6.388733386993408</v>
+        <v>6.343104362487793</v>
       </c>
       <c r="I54" t="n">
         <v>3.5</v>
       </c>
       <c r="J54" t="n">
-        <v>5.072473049163818</v>
+        <v>5.787146091461182</v>
       </c>
       <c r="K54" t="n">
         <v>7.2</v>
       </c>
       <c r="L54" t="n">
-        <v>5.776305198669434</v>
+        <v>5.261999130249023</v>
       </c>
     </row>
     <row r="55">
@@ -2514,37 +2514,37 @@
         <v>8.4</v>
       </c>
       <c r="B55" t="n">
-        <v>7.65338659286499</v>
+        <v>8.571064949035645</v>
       </c>
       <c r="C55" t="n">
         <v>9.5</v>
       </c>
       <c r="D55" t="n">
-        <v>8.698275566101074</v>
+        <v>8.871023178100586</v>
       </c>
       <c r="E55" t="n">
         <v>7.5</v>
       </c>
       <c r="F55" t="n">
-        <v>7.720184803009033</v>
+        <v>7.380212783813477</v>
       </c>
       <c r="G55" t="n">
         <v>7.75</v>
       </c>
       <c r="H55" t="n">
-        <v>7.148009300231934</v>
+        <v>7.957966327667236</v>
       </c>
       <c r="I55" t="n">
         <v>7</v>
       </c>
       <c r="J55" t="n">
-        <v>5.648928165435791</v>
+        <v>6.15459680557251</v>
       </c>
       <c r="K55" t="n">
         <v>8</v>
       </c>
       <c r="L55" t="n">
-        <v>7.165402412414551</v>
+        <v>6.583755493164062</v>
       </c>
     </row>
     <row r="56">
@@ -2552,37 +2552,37 @@
         <v>6</v>
       </c>
       <c r="B56" t="n">
-        <v>6.023087501525879</v>
+        <v>6.607661247253418</v>
       </c>
       <c r="C56" t="n">
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>7.036117553710938</v>
+        <v>6.746029853820801</v>
       </c>
       <c r="E56" t="n">
         <v>4.75</v>
       </c>
       <c r="F56" t="n">
-        <v>5.33445930480957</v>
+        <v>5.033148765563965</v>
       </c>
       <c r="G56" t="n">
         <v>6.5</v>
       </c>
       <c r="H56" t="n">
-        <v>5.407950401306152</v>
+        <v>6.182192325592041</v>
       </c>
       <c r="I56" t="n">
         <v>5.25</v>
       </c>
       <c r="J56" t="n">
-        <v>4.102845191955566</v>
+        <v>4.92702579498291</v>
       </c>
       <c r="K56" t="n">
         <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>4.312366485595703</v>
+        <v>4.251175403594971</v>
       </c>
     </row>
     <row r="57">
@@ -2590,37 +2590,37 @@
         <v>7.8</v>
       </c>
       <c r="B57" t="n">
-        <v>7.153180122375488</v>
+        <v>7.692018032073975</v>
       </c>
       <c r="C57" t="n">
         <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>7.485486030578613</v>
+        <v>7.364303112030029</v>
       </c>
       <c r="E57" t="n">
         <v>6.75</v>
       </c>
       <c r="F57" t="n">
-        <v>6.892982006072998</v>
+        <v>6.65270471572876</v>
       </c>
       <c r="G57" t="n">
         <v>7.5</v>
       </c>
       <c r="H57" t="n">
-        <v>7.201145172119141</v>
+        <v>6.847645282745361</v>
       </c>
       <c r="I57" t="n">
         <v>6.75</v>
       </c>
       <c r="J57" t="n">
-        <v>4.249395370483398</v>
+        <v>5.137206554412842</v>
       </c>
       <c r="K57" t="n">
         <v>5</v>
       </c>
       <c r="L57" t="n">
-        <v>5.38982629776001</v>
+        <v>4.882122039794922</v>
       </c>
     </row>
     <row r="58">
@@ -2628,37 +2628,37 @@
         <v>8.6</v>
       </c>
       <c r="B58" t="n">
-        <v>8.273361206054688</v>
+        <v>9.248736381530762</v>
       </c>
       <c r="C58" t="n">
         <v>7.75</v>
       </c>
       <c r="D58" t="n">
-        <v>8.563456535339355</v>
+        <v>8.668862342834473</v>
       </c>
       <c r="E58" t="n">
         <v>8.25</v>
       </c>
       <c r="F58" t="n">
-        <v>8.512151718139648</v>
+        <v>8.36180305480957</v>
       </c>
       <c r="G58" t="n">
         <v>8.75</v>
       </c>
       <c r="H58" t="n">
-        <v>7.539234161376953</v>
+        <v>8.66157054901123</v>
       </c>
       <c r="I58" t="n">
         <v>7</v>
       </c>
       <c r="J58" t="n">
-        <v>6.736044883728027</v>
+        <v>6.94938325881958</v>
       </c>
       <c r="K58" t="n">
         <v>8.4</v>
       </c>
       <c r="L58" t="n">
-        <v>7.86762809753418</v>
+        <v>7.053579330444336</v>
       </c>
     </row>
     <row r="59">
@@ -2666,37 +2666,37 @@
         <v>8.6</v>
       </c>
       <c r="B59" t="n">
-        <v>8.297947883605957</v>
+        <v>8.970790863037109</v>
       </c>
       <c r="C59" t="n">
         <v>8.25</v>
       </c>
       <c r="D59" t="n">
-        <v>8.650683403015137</v>
+        <v>8.831067085266113</v>
       </c>
       <c r="E59" t="n">
         <v>8.25</v>
       </c>
       <c r="F59" t="n">
-        <v>8.682689666748047</v>
+        <v>8.309704780578613</v>
       </c>
       <c r="G59" t="n">
         <v>8.25</v>
       </c>
       <c r="H59" t="n">
-        <v>8.045961380004883</v>
+        <v>8.82648754119873</v>
       </c>
       <c r="I59" t="n">
         <v>7</v>
       </c>
       <c r="J59" t="n">
-        <v>7.005524158477783</v>
+        <v>6.704291820526123</v>
       </c>
       <c r="K59" t="n">
         <v>7.4</v>
       </c>
       <c r="L59" t="n">
-        <v>8.244961738586426</v>
+        <v>7.463035583496094</v>
       </c>
     </row>
     <row r="60">
@@ -2704,37 +2704,37 @@
         <v>7.2</v>
       </c>
       <c r="B60" t="n">
-        <v>6.411114692687988</v>
+        <v>7.397478103637695</v>
       </c>
       <c r="C60" t="n">
         <v>6.25</v>
       </c>
       <c r="D60" t="n">
-        <v>7.424308776855469</v>
+        <v>7.359923839569092</v>
       </c>
       <c r="E60" t="n">
         <v>5.75</v>
       </c>
       <c r="F60" t="n">
-        <v>5.810815811157227</v>
+        <v>5.986013412475586</v>
       </c>
       <c r="G60" t="n">
         <v>7</v>
       </c>
       <c r="H60" t="n">
-        <v>6.885762214660645</v>
+        <v>7.473375797271729</v>
       </c>
       <c r="I60" t="n">
         <v>5.25</v>
       </c>
       <c r="J60" t="n">
-        <v>5.84777307510376</v>
+        <v>6.552131175994873</v>
       </c>
       <c r="K60" t="n">
         <v>6.2</v>
       </c>
       <c r="L60" t="n">
-        <v>4.989408493041992</v>
+        <v>5.464763641357422</v>
       </c>
     </row>
     <row r="61">
@@ -2742,37 +2742,37 @@
         <v>7.4</v>
       </c>
       <c r="B61" t="n">
-        <v>6.846630096435547</v>
+        <v>7.47820520401001</v>
       </c>
       <c r="C61" t="n">
         <v>8.5</v>
       </c>
       <c r="D61" t="n">
-        <v>7.764636516571045</v>
+        <v>7.546841621398926</v>
       </c>
       <c r="E61" t="n">
         <v>4.5</v>
       </c>
       <c r="F61" t="n">
-        <v>6.073522567749023</v>
+        <v>5.48818302154541</v>
       </c>
       <c r="G61" t="n">
         <v>8.25</v>
       </c>
       <c r="H61" t="n">
-        <v>6.008374214172363</v>
+        <v>6.893735408782959</v>
       </c>
       <c r="I61" t="n">
         <v>7.25</v>
       </c>
       <c r="J61" t="n">
-        <v>6.327066898345947</v>
+        <v>6.322503089904785</v>
       </c>
       <c r="K61" t="n">
         <v>4.6</v>
       </c>
       <c r="L61" t="n">
-        <v>4.420428276062012</v>
+        <v>4.482234954833984</v>
       </c>
     </row>
     <row r="62">
@@ -2780,37 +2780,37 @@
         <v>7.6</v>
       </c>
       <c r="B62" t="n">
-        <v>7.17344856262207</v>
+        <v>7.961979389190674</v>
       </c>
       <c r="C62" t="n">
         <v>9</v>
       </c>
       <c r="D62" t="n">
-        <v>8.333683013916016</v>
+        <v>8.076150894165039</v>
       </c>
       <c r="E62" t="n">
         <v>7.5</v>
       </c>
       <c r="F62" t="n">
-        <v>6.881594181060791</v>
+        <v>6.354539394378662</v>
       </c>
       <c r="G62" t="n">
         <v>7.5</v>
       </c>
       <c r="H62" t="n">
-        <v>6.770491600036621</v>
+        <v>7.632431983947754</v>
       </c>
       <c r="I62" t="n">
         <v>7.5</v>
       </c>
       <c r="J62" t="n">
-        <v>6.554901123046875</v>
+        <v>6.507287502288818</v>
       </c>
       <c r="K62" t="n">
         <v>5.2</v>
       </c>
       <c r="L62" t="n">
-        <v>5.873291969299316</v>
+        <v>5.953563213348389</v>
       </c>
     </row>
     <row r="63">
@@ -2818,37 +2818,37 @@
         <v>7.6</v>
       </c>
       <c r="B63" t="n">
-        <v>7.511111736297607</v>
+        <v>8.174357414245605</v>
       </c>
       <c r="C63" t="n">
         <v>8.25</v>
       </c>
       <c r="D63" t="n">
-        <v>8.086202621459961</v>
+        <v>8.18227481842041</v>
       </c>
       <c r="E63" t="n">
         <v>8</v>
       </c>
       <c r="F63" t="n">
-        <v>6.818268775939941</v>
+        <v>6.648972034454346</v>
       </c>
       <c r="G63" t="n">
         <v>7.75</v>
       </c>
       <c r="H63" t="n">
-        <v>7.066601753234863</v>
+        <v>7.806457996368408</v>
       </c>
       <c r="I63" t="n">
         <v>5.5</v>
       </c>
       <c r="J63" t="n">
-        <v>6.278163909912109</v>
+        <v>6.578711032867432</v>
       </c>
       <c r="K63" t="n">
         <v>7.4</v>
       </c>
       <c r="L63" t="n">
-        <v>7.64556884765625</v>
+        <v>7.087006568908691</v>
       </c>
     </row>
     <row r="64">
@@ -2856,37 +2856,37 @@
         <v>7.4</v>
       </c>
       <c r="B64" t="n">
-        <v>7.082859039306641</v>
+        <v>8.155072212219238</v>
       </c>
       <c r="C64" t="n">
         <v>6.25</v>
       </c>
       <c r="D64" t="n">
-        <v>8.107060432434082</v>
+        <v>8.44096565246582</v>
       </c>
       <c r="E64" t="n">
         <v>6.25</v>
       </c>
       <c r="F64" t="n">
-        <v>7.570652484893799</v>
+        <v>7.012206554412842</v>
       </c>
       <c r="G64" t="n">
         <v>8</v>
       </c>
       <c r="H64" t="n">
-        <v>8.196287155151367</v>
+        <v>8.201603889465332</v>
       </c>
       <c r="I64" t="n">
         <v>6</v>
       </c>
       <c r="J64" t="n">
-        <v>6.797371387481689</v>
+        <v>6.661019325256348</v>
       </c>
       <c r="K64" t="n">
         <v>6.4</v>
       </c>
       <c r="L64" t="n">
-        <v>7.683229446411133</v>
+        <v>6.955148696899414</v>
       </c>
     </row>
     <row r="65">
@@ -2894,37 +2894,37 @@
         <v>6.6</v>
       </c>
       <c r="B65" t="n">
-        <v>7.587162017822266</v>
+        <v>7.490938186645508</v>
       </c>
       <c r="C65" t="n">
         <v>7.25</v>
       </c>
       <c r="D65" t="n">
-        <v>8.009780883789062</v>
+        <v>7.841939449310303</v>
       </c>
       <c r="E65" t="n">
         <v>4</v>
       </c>
       <c r="F65" t="n">
-        <v>7.492142677307129</v>
+        <v>5.997273921966553</v>
       </c>
       <c r="G65" t="n">
         <v>7</v>
       </c>
       <c r="H65" t="n">
-        <v>6.818188667297363</v>
+        <v>7.159015655517578</v>
       </c>
       <c r="I65" t="n">
         <v>5</v>
       </c>
       <c r="J65" t="n">
-        <v>6.872859954833984</v>
+        <v>5.835900783538818</v>
       </c>
       <c r="K65" t="n">
         <v>4.8</v>
       </c>
       <c r="L65" t="n">
-        <v>6.748746395111084</v>
+        <v>6.617582321166992</v>
       </c>
     </row>
     <row r="66">
@@ -2932,37 +2932,37 @@
         <v>7.8</v>
       </c>
       <c r="B66" t="n">
-        <v>7.600458145141602</v>
+        <v>8.395684242248535</v>
       </c>
       <c r="C66" t="n">
         <v>9.25</v>
       </c>
       <c r="D66" t="n">
-        <v>8.400881767272949</v>
+        <v>8.344013214111328</v>
       </c>
       <c r="E66" t="n">
         <v>8</v>
       </c>
       <c r="F66" t="n">
-        <v>7.555515289306641</v>
+        <v>7.532865047454834</v>
       </c>
       <c r="G66" t="n">
         <v>7.5</v>
       </c>
       <c r="H66" t="n">
-        <v>6.192599296569824</v>
+        <v>7.110623359680176</v>
       </c>
       <c r="I66" t="n">
         <v>6.25</v>
       </c>
       <c r="J66" t="n">
-        <v>5.13014554977417</v>
+        <v>5.24755859375</v>
       </c>
       <c r="K66" t="n">
         <v>8.6</v>
       </c>
       <c r="L66" t="n">
-        <v>8.562307357788086</v>
+        <v>8.146864891052246</v>
       </c>
     </row>
     <row r="67">
@@ -2970,37 +2970,37 @@
         <v>7.6</v>
       </c>
       <c r="B67" t="n">
-        <v>6.873629093170166</v>
+        <v>7.200152397155762</v>
       </c>
       <c r="C67" t="n">
         <v>5.75</v>
       </c>
       <c r="D67" t="n">
-        <v>7.604092597961426</v>
+        <v>7.022086620330811</v>
       </c>
       <c r="E67" t="n">
         <v>5</v>
       </c>
       <c r="F67" t="n">
-        <v>6.181886196136475</v>
+        <v>5.436399936676025</v>
       </c>
       <c r="G67" t="n">
         <v>5.25</v>
       </c>
       <c r="H67" t="n">
-        <v>5.610244750976562</v>
+        <v>6.003689765930176</v>
       </c>
       <c r="I67" t="n">
         <v>3.5</v>
       </c>
       <c r="J67" t="n">
-        <v>5.291864395141602</v>
+        <v>4.646366119384766</v>
       </c>
       <c r="K67" t="n">
         <v>4.2</v>
       </c>
       <c r="L67" t="n">
-        <v>4.875309467315674</v>
+        <v>4.813283920288086</v>
       </c>
     </row>
     <row r="68">
@@ -3008,37 +3008,37 @@
         <v>7.8</v>
       </c>
       <c r="B68" t="n">
-        <v>7.730142116546631</v>
+        <v>8.232009887695312</v>
       </c>
       <c r="C68" t="n">
         <v>7.25</v>
       </c>
       <c r="D68" t="n">
-        <v>7.73995304107666</v>
+        <v>7.762904644012451</v>
       </c>
       <c r="E68" t="n">
         <v>6.5</v>
       </c>
       <c r="F68" t="n">
-        <v>7.445933818817139</v>
+        <v>7.011047840118408</v>
       </c>
       <c r="G68" t="n">
         <v>7.5</v>
       </c>
       <c r="H68" t="n">
-        <v>6.924044609069824</v>
+        <v>7.540746212005615</v>
       </c>
       <c r="I68" t="n">
         <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>5.720574378967285</v>
+        <v>6.260223865509033</v>
       </c>
       <c r="K68" t="n">
         <v>6.8</v>
       </c>
       <c r="L68" t="n">
-        <v>6.929558277130127</v>
+        <v>6.61604118347168</v>
       </c>
     </row>
     <row r="69">
@@ -3046,37 +3046,37 @@
         <v>7.4</v>
       </c>
       <c r="B69" t="n">
-        <v>7.916242122650146</v>
+        <v>7.062111854553223</v>
       </c>
       <c r="C69" t="n">
         <v>7.25</v>
       </c>
       <c r="D69" t="n">
-        <v>7.641444206237793</v>
+        <v>6.818093776702881</v>
       </c>
       <c r="E69" t="n">
         <v>4.5</v>
       </c>
       <c r="F69" t="n">
-        <v>8.704886436462402</v>
+        <v>6.217399120330811</v>
       </c>
       <c r="G69" t="n">
         <v>6.25</v>
       </c>
       <c r="H69" t="n">
-        <v>7.854452610015869</v>
+        <v>6.541365146636963</v>
       </c>
       <c r="I69" t="n">
         <v>4.25</v>
       </c>
       <c r="J69" t="n">
-        <v>7.023622035980225</v>
+        <v>5.27813196182251</v>
       </c>
       <c r="K69" t="n">
         <v>5.6</v>
       </c>
       <c r="L69" t="n">
-        <v>7.927052021026611</v>
+        <v>6.649641036987305</v>
       </c>
     </row>
     <row r="70">
@@ -3084,37 +3084,37 @@
         <v>8.4</v>
       </c>
       <c r="B70" t="n">
-        <v>7.302828788757324</v>
+        <v>7.692166328430176</v>
       </c>
       <c r="C70" t="n">
         <v>7.5</v>
       </c>
       <c r="D70" t="n">
-        <v>8.568758010864258</v>
+        <v>7.811302185058594</v>
       </c>
       <c r="E70" t="n">
         <v>6.25</v>
       </c>
       <c r="F70" t="n">
-        <v>6.935769081115723</v>
+        <v>6.645162105560303</v>
       </c>
       <c r="G70" t="n">
         <v>7.5</v>
       </c>
       <c r="H70" t="n">
-        <v>7.083306312561035</v>
+        <v>6.918509006500244</v>
       </c>
       <c r="I70" t="n">
         <v>5</v>
       </c>
       <c r="J70" t="n">
-        <v>5.221155166625977</v>
+        <v>4.776650428771973</v>
       </c>
       <c r="K70" t="n">
         <v>5.2</v>
       </c>
       <c r="L70" t="n">
-        <v>5.560110569000244</v>
+        <v>4.921154022216797</v>
       </c>
     </row>
     <row r="71">
@@ -3122,37 +3122,37 @@
         <v>7.8</v>
       </c>
       <c r="B71" t="n">
-        <v>7.743046283721924</v>
+        <v>8.323439598083496</v>
       </c>
       <c r="C71" t="n">
         <v>8.5</v>
       </c>
       <c r="D71" t="n">
-        <v>8.572408676147461</v>
+        <v>8.558156967163086</v>
       </c>
       <c r="E71" t="n">
         <v>7.5</v>
       </c>
       <c r="F71" t="n">
-        <v>7.41037654876709</v>
+        <v>6.592226028442383</v>
       </c>
       <c r="G71" t="n">
         <v>8.5</v>
       </c>
       <c r="H71" t="n">
-        <v>6.805296897888184</v>
+        <v>7.608054637908936</v>
       </c>
       <c r="I71" t="n">
         <v>6.25</v>
       </c>
       <c r="J71" t="n">
-        <v>5.878837585449219</v>
+        <v>6.14360523223877</v>
       </c>
       <c r="K71" t="n">
         <v>6</v>
       </c>
       <c r="L71" t="n">
-        <v>5.223743438720703</v>
+        <v>4.890017032623291</v>
       </c>
     </row>
     <row r="72">
@@ -3160,37 +3160,37 @@
         <v>6</v>
       </c>
       <c r="B72" t="n">
-        <v>6.530402183532715</v>
+        <v>7.040863990783691</v>
       </c>
       <c r="C72" t="n">
         <v>6.25</v>
       </c>
       <c r="D72" t="n">
-        <v>6.963959693908691</v>
+        <v>6.810000419616699</v>
       </c>
       <c r="E72" t="n">
         <v>4.75</v>
       </c>
       <c r="F72" t="n">
-        <v>5.925722122192383</v>
+        <v>5.904224872589111</v>
       </c>
       <c r="G72" t="n">
         <v>3.75</v>
       </c>
       <c r="H72" t="n">
-        <v>6.133095741271973</v>
+        <v>5.952989101409912</v>
       </c>
       <c r="I72" t="n">
         <v>5.25</v>
       </c>
       <c r="J72" t="n">
-        <v>4.304817199707031</v>
+        <v>4.778303146362305</v>
       </c>
       <c r="K72" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="L72" t="n">
-        <v>7.136285305023193</v>
+        <v>7.473020553588867</v>
       </c>
     </row>
     <row r="73">
@@ -3198,37 +3198,37 @@
         <v>7</v>
       </c>
       <c r="B73" t="n">
-        <v>7.550622463226318</v>
+        <v>7.885306835174561</v>
       </c>
       <c r="C73" t="n">
         <v>8.5</v>
       </c>
       <c r="D73" t="n">
-        <v>8.214649200439453</v>
+        <v>8.198395729064941</v>
       </c>
       <c r="E73" t="n">
         <v>6.5</v>
       </c>
       <c r="F73" t="n">
-        <v>7.047008514404297</v>
+        <v>6.500977993011475</v>
       </c>
       <c r="G73" t="n">
         <v>6.5</v>
       </c>
       <c r="H73" t="n">
-        <v>6.361100673675537</v>
+        <v>7.311976909637451</v>
       </c>
       <c r="I73" t="n">
         <v>5.5</v>
       </c>
       <c r="J73" t="n">
-        <v>5.718482971191406</v>
+        <v>5.49661922454834</v>
       </c>
       <c r="K73" t="n">
         <v>4.6</v>
       </c>
       <c r="L73" t="n">
-        <v>5.876499652862549</v>
+        <v>5.651322364807129</v>
       </c>
     </row>
     <row r="74">
@@ -3236,37 +3236,37 @@
         <v>7</v>
       </c>
       <c r="B74" t="n">
-        <v>6.861414909362793</v>
+        <v>7.810312747955322</v>
       </c>
       <c r="C74" t="n">
         <v>7.5</v>
       </c>
       <c r="D74" t="n">
-        <v>7.340653896331787</v>
+        <v>7.257209777832031</v>
       </c>
       <c r="E74" t="n">
         <v>6.75</v>
       </c>
       <c r="F74" t="n">
-        <v>6.747695922851562</v>
+        <v>6.993408679962158</v>
       </c>
       <c r="G74" t="n">
         <v>7.5</v>
       </c>
       <c r="H74" t="n">
-        <v>6.468767642974854</v>
+        <v>6.844199657440186</v>
       </c>
       <c r="I74" t="n">
         <v>6.25</v>
       </c>
       <c r="J74" t="n">
-        <v>4.789360523223877</v>
+        <v>5.316160678863525</v>
       </c>
       <c r="K74" t="n">
         <v>6.8</v>
       </c>
       <c r="L74" t="n">
-        <v>7.435362815856934</v>
+        <v>7.082287311553955</v>
       </c>
     </row>
     <row r="75">
@@ -3274,37 +3274,37 @@
         <v>7.4</v>
       </c>
       <c r="B75" t="n">
-        <v>7.107555389404297</v>
+        <v>7.988580703735352</v>
       </c>
       <c r="C75" t="n">
         <v>7.5</v>
       </c>
       <c r="D75" t="n">
-        <v>7.832759380340576</v>
+        <v>7.872982978820801</v>
       </c>
       <c r="E75" t="n">
         <v>5.75</v>
       </c>
       <c r="F75" t="n">
-        <v>6.307039260864258</v>
+        <v>6.433441638946533</v>
       </c>
       <c r="G75" t="n">
         <v>7.75</v>
       </c>
       <c r="H75" t="n">
-        <v>6.952710151672363</v>
+        <v>7.262809753417969</v>
       </c>
       <c r="I75" t="n">
         <v>6.25</v>
       </c>
       <c r="J75" t="n">
-        <v>4.810104370117188</v>
+        <v>5.900539875030518</v>
       </c>
       <c r="K75" t="n">
         <v>8.6</v>
       </c>
       <c r="L75" t="n">
-        <v>6.359097480773926</v>
+        <v>5.927130699157715</v>
       </c>
     </row>
     <row r="76">
@@ -3312,37 +3312,37 @@
         <v>8.6</v>
       </c>
       <c r="B76" t="n">
-        <v>7.925516605377197</v>
+        <v>8.711202621459961</v>
       </c>
       <c r="C76" t="n">
         <v>7.75</v>
       </c>
       <c r="D76" t="n">
-        <v>8.206485748291016</v>
+        <v>8.171363830566406</v>
       </c>
       <c r="E76" t="n">
         <v>9</v>
       </c>
       <c r="F76" t="n">
-        <v>7.782583236694336</v>
+        <v>7.660404682159424</v>
       </c>
       <c r="G76" t="n">
         <v>8.5</v>
       </c>
       <c r="H76" t="n">
-        <v>7.983850479125977</v>
+        <v>8.424317359924316</v>
       </c>
       <c r="I76" t="n">
         <v>7.25</v>
       </c>
       <c r="J76" t="n">
-        <v>6.905094146728516</v>
+        <v>7.277429103851318</v>
       </c>
       <c r="K76" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L76" t="n">
-        <v>8.012832641601562</v>
+        <v>7.636870861053467</v>
       </c>
     </row>
     <row r="77">
@@ -3350,37 +3350,37 @@
         <v>7</v>
       </c>
       <c r="B77" t="n">
-        <v>6.366847515106201</v>
+        <v>6.779759407043457</v>
       </c>
       <c r="C77" t="n">
         <v>8.5</v>
       </c>
       <c r="D77" t="n">
-        <v>6.88530158996582</v>
+        <v>6.937251091003418</v>
       </c>
       <c r="E77" t="n">
         <v>6.5</v>
       </c>
       <c r="F77" t="n">
-        <v>5.781449794769287</v>
+        <v>5.080471515655518</v>
       </c>
       <c r="G77" t="n">
         <v>6.5</v>
       </c>
       <c r="H77" t="n">
-        <v>5.444068908691406</v>
+        <v>6.168431758880615</v>
       </c>
       <c r="I77" t="n">
         <v>5.5</v>
       </c>
       <c r="J77" t="n">
-        <v>4.84937572479248</v>
+        <v>4.806971073150635</v>
       </c>
       <c r="K77" t="n">
         <v>4.6</v>
       </c>
       <c r="L77" t="n">
-        <v>4.954264163970947</v>
+        <v>4.315571784973145</v>
       </c>
     </row>
     <row r="78">
@@ -3388,37 +3388,37 @@
         <v>7.8</v>
       </c>
       <c r="B78" t="n">
-        <v>7.30617094039917</v>
+        <v>8.323890686035156</v>
       </c>
       <c r="C78" t="n">
         <v>7.75</v>
       </c>
       <c r="D78" t="n">
-        <v>7.40172004699707</v>
+        <v>7.786003112792969</v>
       </c>
       <c r="E78" t="n">
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>7.530259609222412</v>
+        <v>7.381822109222412</v>
       </c>
       <c r="G78" t="n">
         <v>8.25</v>
       </c>
       <c r="H78" t="n">
-        <v>7.386808395385742</v>
+        <v>8.049163818359375</v>
       </c>
       <c r="I78" t="n">
         <v>6</v>
       </c>
       <c r="J78" t="n">
-        <v>5.935775279998779</v>
+        <v>6.44330358505249</v>
       </c>
       <c r="K78" t="n">
         <v>6.2</v>
       </c>
       <c r="L78" t="n">
-        <v>5.61598539352417</v>
+        <v>5.427123069763184</v>
       </c>
     </row>
     <row r="79">
@@ -3426,37 +3426,37 @@
         <v>8.6</v>
       </c>
       <c r="B79" t="n">
-        <v>8.159327507019043</v>
+        <v>8.955759048461914</v>
       </c>
       <c r="C79" t="n">
         <v>7.25</v>
       </c>
       <c r="D79" t="n">
-        <v>8.301906585693359</v>
+        <v>8.163335800170898</v>
       </c>
       <c r="E79" t="n">
         <v>7.75</v>
       </c>
       <c r="F79" t="n">
-        <v>7.994637966156006</v>
+        <v>7.837210655212402</v>
       </c>
       <c r="G79" t="n">
         <v>8.25</v>
       </c>
       <c r="H79" t="n">
-        <v>7.940202713012695</v>
+        <v>8.273849487304688</v>
       </c>
       <c r="I79" t="n">
         <v>5.75</v>
       </c>
       <c r="J79" t="n">
-        <v>7.223669052124023</v>
+        <v>7.175681114196777</v>
       </c>
       <c r="K79" t="n">
         <v>6.8</v>
       </c>
       <c r="L79" t="n">
-        <v>7.844025611877441</v>
+        <v>7.501909732818604</v>
       </c>
     </row>
     <row r="80">
@@ -3464,37 +3464,37 @@
         <v>5.6</v>
       </c>
       <c r="B80" t="n">
-        <v>6.543726921081543</v>
+        <v>7.165198802947998</v>
       </c>
       <c r="C80" t="n">
         <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>7.897167205810547</v>
+        <v>7.681927680969238</v>
       </c>
       <c r="E80" t="n">
         <v>4.5</v>
       </c>
       <c r="F80" t="n">
-        <v>5.882310390472412</v>
+        <v>4.989326000213623</v>
       </c>
       <c r="G80" t="n">
         <v>6</v>
       </c>
       <c r="H80" t="n">
-        <v>5.983388900756836</v>
+        <v>6.458983898162842</v>
       </c>
       <c r="I80" t="n">
         <v>7.25</v>
       </c>
       <c r="J80" t="n">
-        <v>5.987522602081299</v>
+        <v>5.977641582489014</v>
       </c>
       <c r="K80" t="n">
         <v>4.6</v>
       </c>
       <c r="L80" t="n">
-        <v>4.630912780761719</v>
+        <v>4.509275436401367</v>
       </c>
     </row>
     <row r="81">
@@ -3502,37 +3502,37 @@
         <v>6.6</v>
       </c>
       <c r="B81" t="n">
-        <v>7.81417179107666</v>
+        <v>7.914951801300049</v>
       </c>
       <c r="C81" t="n">
         <v>7.75</v>
       </c>
       <c r="D81" t="n">
-        <v>7.763803005218506</v>
+        <v>7.457344532012939</v>
       </c>
       <c r="E81" t="n">
         <v>5</v>
       </c>
       <c r="F81" t="n">
-        <v>7.254398345947266</v>
+        <v>6.769625186920166</v>
       </c>
       <c r="G81" t="n">
         <v>5.25</v>
       </c>
       <c r="H81" t="n">
-        <v>7.070648670196533</v>
+        <v>7.337831020355225</v>
       </c>
       <c r="I81" t="n">
         <v>5.5</v>
       </c>
       <c r="J81" t="n">
-        <v>5.730511665344238</v>
+        <v>5.73020601272583</v>
       </c>
       <c r="K81" t="n">
         <v>4.6</v>
       </c>
       <c r="L81" t="n">
-        <v>4.910615921020508</v>
+        <v>4.092340469360352</v>
       </c>
     </row>
     <row r="82">
@@ -3540,37 +3540,37 @@
         <v>7</v>
       </c>
       <c r="B82" t="n">
-        <v>6.826900005340576</v>
+        <v>7.831878662109375</v>
       </c>
       <c r="C82" t="n">
         <v>8.5</v>
       </c>
       <c r="D82" t="n">
-        <v>8.415311813354492</v>
+        <v>8.271519660949707</v>
       </c>
       <c r="E82" t="n">
         <v>6.5</v>
       </c>
       <c r="F82" t="n">
-        <v>5.881617546081543</v>
+        <v>6.303801536560059</v>
       </c>
       <c r="G82" t="n">
         <v>8</v>
       </c>
       <c r="H82" t="n">
-        <v>6.550394058227539</v>
+        <v>7.51202392578125</v>
       </c>
       <c r="I82" t="n">
         <v>6.75</v>
       </c>
       <c r="J82" t="n">
-        <v>5.734093189239502</v>
+        <v>6.2249755859375</v>
       </c>
       <c r="K82" t="n">
         <v>8.4</v>
       </c>
       <c r="L82" t="n">
-        <v>7.487173080444336</v>
+        <v>7.128734588623047</v>
       </c>
     </row>
     <row r="83">
@@ -3578,37 +3578,37 @@
         <v>6.8</v>
       </c>
       <c r="B83" t="n">
-        <v>6.649284362792969</v>
+        <v>6.619045734405518</v>
       </c>
       <c r="C83" t="n">
         <v>5.5</v>
       </c>
       <c r="D83" t="n">
-        <v>7.385578155517578</v>
+        <v>6.406288623809814</v>
       </c>
       <c r="E83" t="n">
         <v>4.5</v>
       </c>
       <c r="F83" t="n">
-        <v>6.005923271179199</v>
+        <v>4.83344841003418</v>
       </c>
       <c r="G83" t="n">
         <v>6</v>
       </c>
       <c r="H83" t="n">
-        <v>6.07487154006958</v>
+        <v>5.613003730773926</v>
       </c>
       <c r="I83" t="n">
         <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>6.091357707977295</v>
+        <v>5.468078136444092</v>
       </c>
       <c r="K83" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="L83" t="n">
-        <v>6.451371669769287</v>
+        <v>7.38570499420166</v>
       </c>
     </row>
     <row r="84">
@@ -3616,37 +3616,37 @@
         <v>7.6</v>
       </c>
       <c r="B84" t="n">
-        <v>8.238062858581543</v>
+        <v>8.56855583190918</v>
       </c>
       <c r="C84" t="n">
         <v>8</v>
       </c>
       <c r="D84" t="n">
-        <v>8.686214447021484</v>
+        <v>8.083148002624512</v>
       </c>
       <c r="E84" t="n">
         <v>8.75</v>
       </c>
       <c r="F84" t="n">
-        <v>8.086994171142578</v>
+        <v>7.759522914886475</v>
       </c>
       <c r="G84" t="n">
         <v>7.25</v>
       </c>
       <c r="H84" t="n">
-        <v>5.737361907958984</v>
+        <v>7.334290981292725</v>
       </c>
       <c r="I84" t="n">
         <v>6.5</v>
       </c>
       <c r="J84" t="n">
-        <v>6.774350166320801</v>
+        <v>5.826546669006348</v>
       </c>
       <c r="K84" t="n">
         <v>8.4</v>
       </c>
       <c r="L84" t="n">
-        <v>7.521008014678955</v>
+        <v>7.35016918182373</v>
       </c>
     </row>
     <row r="85">
@@ -3654,37 +3654,37 @@
         <v>7</v>
       </c>
       <c r="B85" t="n">
-        <v>6.333784580230713</v>
+        <v>6.85040283203125</v>
       </c>
       <c r="C85" t="n">
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7.020415306091309</v>
+        <v>6.917094230651855</v>
       </c>
       <c r="E85" t="n">
         <v>5.5</v>
       </c>
       <c r="F85" t="n">
-        <v>5.725194931030273</v>
+        <v>5.351875305175781</v>
       </c>
       <c r="G85" t="n">
         <v>7.5</v>
       </c>
       <c r="H85" t="n">
-        <v>5.456911087036133</v>
+        <v>6.126445770263672</v>
       </c>
       <c r="I85" t="n">
         <v>3.75</v>
       </c>
       <c r="J85" t="n">
-        <v>4.380492210388184</v>
+        <v>4.73492431640625</v>
       </c>
       <c r="K85" t="n">
         <v>5</v>
       </c>
       <c r="L85" t="n">
-        <v>4.328736305236816</v>
+        <v>4.001165390014648</v>
       </c>
     </row>
     <row r="86">
@@ -3692,37 +3692,37 @@
         <v>8.4</v>
       </c>
       <c r="B86" t="n">
-        <v>7.80795431137085</v>
+        <v>8.797049522399902</v>
       </c>
       <c r="C86" t="n">
         <v>7.25</v>
       </c>
       <c r="D86" t="n">
-        <v>7.878366470336914</v>
+        <v>8.208332061767578</v>
       </c>
       <c r="E86" t="n">
         <v>8.25</v>
       </c>
       <c r="F86" t="n">
-        <v>7.786911964416504</v>
+        <v>7.476956367492676</v>
       </c>
       <c r="G86" t="n">
         <v>8.5</v>
       </c>
       <c r="H86" t="n">
-        <v>7.201745510101318</v>
+        <v>8.171582221984863</v>
       </c>
       <c r="I86" t="n">
         <v>7</v>
       </c>
       <c r="J86" t="n">
-        <v>6.358154296875</v>
+        <v>7.039918422698975</v>
       </c>
       <c r="K86" t="n">
         <v>6.4</v>
       </c>
       <c r="L86" t="n">
-        <v>6.958684921264648</v>
+        <v>6.460110664367676</v>
       </c>
     </row>
   </sheetData>
